--- a/docs/Schedule.xlsx
+++ b/docs/Schedule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Компоненты
 системы</t>
@@ -59,10 +59,6 @@
     <t>Главный экран</t>
   </si>
   <si>
-    <t>Экраны выбора графиков 
-и отображения статистики</t>
-  </si>
-  <si>
     <t>Работа с базой данных</t>
   </si>
   <si>
@@ -92,18 +88,32 @@
   <si>
     <t>Реализация передачи кадров 
 с камеры на Backend</t>
+  </si>
+  <si>
+    <t>Экраны выбора графиков и отображения статистики</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,12 +173,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
       </patternFill>
@@ -206,8 +210,14 @@
         <fgColor theme="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -330,19 +340,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -525,19 +522,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -577,246 +561,242 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="17" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="24" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="19" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="27" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="28" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="23" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="27" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="25" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="26" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="23" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="17" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="16" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="20% - Акцент1" xfId="3" builtinId="30"/>
-    <cellStyle name="40% - Акцент2" xfId="6" builtinId="35"/>
-    <cellStyle name="40% - Акцент3" xfId="9" builtinId="39"/>
-    <cellStyle name="60% - Акцент1" xfId="4" builtinId="32"/>
-    <cellStyle name="60% - Акцент2" xfId="7" builtinId="36"/>
+    <cellStyle name="40% - Акцент1" xfId="10" builtinId="31"/>
+    <cellStyle name="40% - Акцент2" xfId="5" builtinId="35"/>
+    <cellStyle name="40% - Акцент3" xfId="8" builtinId="39"/>
+    <cellStyle name="60% - Акцент1" xfId="3" builtinId="32"/>
+    <cellStyle name="60% - Акцент2" xfId="6" builtinId="36"/>
     <cellStyle name="Акцент1" xfId="2" builtinId="29"/>
-    <cellStyle name="Акцент2" xfId="5" builtinId="33"/>
-    <cellStyle name="Акцент3" xfId="8" builtinId="37"/>
-    <cellStyle name="Акцент6" xfId="10" builtinId="49"/>
+    <cellStyle name="Акцент2" xfId="4" builtinId="33"/>
+    <cellStyle name="Акцент3" xfId="7" builtinId="37"/>
+    <cellStyle name="Акцент6" xfId="9" builtinId="49"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Примечание" xfId="1" builtinId="10"/>
   </cellStyles>
@@ -1117,9 +1097,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W15"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1139,367 +1121,389 @@
     <col min="17" max="17" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.28515625" style="1" customWidth="1"/>
     <col min="19" max="19" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" style="1" customWidth="1"/>
-    <col min="21" max="22" width="11.7109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="11.140625" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="20" max="22" width="11.28515625" style="1" customWidth="1"/>
+    <col min="23" max="24" width="11.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="69" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="58" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="58" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
     </row>
-    <row r="3" spans="2:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="70"/>
-      <c r="C3" s="16">
+    <row r="3" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="21"/>
+      <c r="C3" s="10">
         <v>44105</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="9">
         <v>44116</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="7">
         <v>44117</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="3">
         <v>44124</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="7">
         <v>44125</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="3">
         <v>44132</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="7">
         <v>44133</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="3">
         <v>44144</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>44150</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="3">
         <v>44151</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="7">
         <v>44156</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="3">
         <v>44157</v>
       </c>
-      <c r="O3" s="8">
-        <v>44158</v>
-      </c>
-      <c r="P3" s="6">
-        <v>44164</v>
-      </c>
-      <c r="Q3" s="8">
+      <c r="O3" s="7">
+        <v>44159</v>
+      </c>
+      <c r="P3" s="3">
+        <v>44160</v>
+      </c>
+      <c r="Q3" s="7">
         <v>44165</v>
       </c>
-      <c r="R3" s="18">
+      <c r="R3" s="3">
         <v>44166</v>
       </c>
-      <c r="S3" s="8">
+      <c r="S3" s="7">
+        <v>44168</v>
+      </c>
+      <c r="T3" s="12">
+        <v>44169</v>
+      </c>
+      <c r="U3" s="3">
+        <v>44176</v>
+      </c>
+      <c r="V3" s="3">
         <v>44177</v>
       </c>
-      <c r="T3" s="3">
-        <v>44178</v>
-      </c>
-      <c r="U3" s="9">
+      <c r="W3" s="7">
         <v>44184</v>
       </c>
-      <c r="V3" s="4">
+      <c r="X3" s="3">
         <v>44185</v>
       </c>
-      <c r="W3" s="19">
+      <c r="Y3" s="7">
         <v>44191</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="68" t="s">
+    <row r="4" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61" t="s">
+      <c r="F4" s="57"/>
+      <c r="G4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="59" t="s">
+      <c r="H4" s="59"/>
+      <c r="I4" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="O4" s="50" t="s">
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="52" t="s">
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="69"/>
+      <c r="V4" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="68"/>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="2"/>
+    </row>
+    <row r="5" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="18"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+    </row>
+    <row r="6" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="32"/>
+      <c r="I6" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="64"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="W6" s="32"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="2"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="17"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="55"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+    </row>
+    <row r="8" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="18"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
     </row>
-    <row r="5" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="67"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="47"/>
-      <c r="L5" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="49"/>
-      <c r="N5" s="73"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
+    <row r="9" spans="1:25" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="44"/>
+      <c r="G9" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="52"/>
+      <c r="I9" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
     </row>
-    <row r="6" spans="2:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="27" t="s">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="28"/>
-      <c r="V6"/>
-      <c r="W6" s="5"/>
+      <c r="C10" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="W10" s="38"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="72"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="66"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="Q7" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="R7" s="26"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-    </row>
-    <row r="8" spans="2:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="67"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="42"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-    </row>
-    <row r="9" spans="2:23" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="31"/>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="O13" s="11"/>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="O14" s="11"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="O15" s="11"/>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="O13" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:W2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="L5:N5"/>
+  <mergeCells count="28">
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="V10:Y10"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="T10:W10"/>
     <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R9:W9"/>
     <mergeCell ref="I7:M7"/>
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:M9"/>
-    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:Y2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
